--- a/Resultados/Mercado mundial - Papas, patatas.xlsx
+++ b/Resultados/Mercado mundial - Papas, patatas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Ukraine" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Russian Federation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ucrania" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,10 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -408,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -434,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -490,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -516,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -572,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -598,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -654,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -680,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -736,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -762,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -818,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -844,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -900,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -926,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ukraine'!$B$12:$B$73</f>
+              <f>'Ucrania'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ukraine'!$C$12:$C$73</f>
+              <f>'Ucrania'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -982,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1008,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1064,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1090,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Russian Federation'!$B$12:$B$73</f>
+              <f>'Federación de Rusia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Russian Federation'!$C$12:$C$73</f>
+              <f>'Federación de Rusia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1164,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1204,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1216,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1234,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1274,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1286,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1304,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1344,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1356,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1374,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1414,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1426,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1441,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1478,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1493,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1530,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1545,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1567,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1582,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1597,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1619,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1649,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1671,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2012,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2061,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2140,10 +2138,10 @@
         <v>16799108</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.8037</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>383082607.38</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.8037</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>17782310.15</v>
@@ -2162,10 +2160,10 @@
         <v>16656505</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22.4177</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>373399784.6</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22.4177</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>16499709.71</v>
@@ -2184,10 +2182,10 @@
         <v>16838602</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.1898</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>373645571.86</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.1898</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>15842842.3</v>
@@ -2206,10 +2204,10 @@
         <v>16754745</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.0139</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>368837532.68</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.0139</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15219543.23</v>
@@ -2228,10 +2226,10 @@
         <v>16338682</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.3889</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>365804927.32</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.3889</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>15449434.3</v>
@@ -2250,10 +2248,10 @@
         <v>17162825</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.2519</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>364742705.41</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.2519</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>14863030.55</v>
@@ -2272,10 +2270,10 @@
         <v>17423554</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21.1942</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>369278999.6</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21.1942</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>14424143.8</v>
@@ -2294,10 +2292,10 @@
         <v>17389992</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>20.3701</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>354236120.77</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>20.3701</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>13394338.65</v>
@@ -2316,10 +2314,10 @@
         <v>18038687</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>20.2707</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>365656470.2</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>20.2707</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>12464728.02</v>
@@ -2338,10 +2336,10 @@
         <v>18034126</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>20.4873</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>369470819.41</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>20.4873</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>12548689.15</v>
@@ -2360,10 +2358,10 @@
         <v>18516362</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>19.784</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>366327121.93</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>19.784</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>13023852</v>
@@ -2382,10 +2380,10 @@
         <v>18703422</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>19.3664</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>362218226.58</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>19.3664</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>12082027</v>
@@ -2404,10 +2402,10 @@
         <v>18706222</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>19.7297</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>369067748.33</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>19.7297</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>12448214.5</v>
@@ -2426,10 +2424,10 @@
         <v>18179292</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>18.0852</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>328775588.76</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>18.0852</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>10953903</v>
@@ -2448,10 +2446,10 @@
         <v>18585195</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>17.8036</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>330884154.45</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>17.8036</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>9775362.09</v>
@@ -2470,10 +2468,10 @@
         <v>18168824</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.015</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>327311701.99</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.015</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10211765.2</v>
@@ -2492,10 +2490,10 @@
         <v>18012300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>17.394</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>313306461.95</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>17.394</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>10500530.74</v>
@@ -2514,10 +2512,10 @@
         <v>17804218</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>17.2805</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>307665613.47</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>17.2805</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>9694463.23</v>
@@ -2536,10 +2534,10 @@
         <v>18756473</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>16.9403</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>317739870.99</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>16.9403</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>9121534.189999999</v>
@@ -2558,10 +2556,10 @@
         <v>18743968</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>17.5106</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>328218313.58</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>17.5106</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>9077761.75</v>
@@ -2580,10 +2578,10 @@
         <v>18705701</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>16.4476</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>307664029.96</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>16.4476</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>9366424.029999999</v>
@@ -2602,10 +2600,10 @@
         <v>18820263</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>16.4644</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>309865038.85</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>16.4644</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>8595167.34</v>
@@ -2624,10 +2622,10 @@
         <v>19440778</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>15.7168</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>305546154.95</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>15.7168</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8236772.22</v>
@@ -2646,10 +2644,10 @@
         <v>19897848</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>16.2238</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>322817990.86</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>16.2238</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7938027.98</v>
@@ -2668,10 +2666,10 @@
         <v>19590963</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>15.1146</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>296109752.06</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>15.1146</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7760677.81</v>
@@ -2690,10 +2688,10 @@
         <v>18768037</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.8692</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>297833665.57</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.8692</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>8246836.39</v>
@@ -2712,10 +2710,10 @@
         <v>18798686</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16.0159</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>301078088.87</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16.0159</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>7248539.38</v>
@@ -2734,10 +2732,10 @@
         <v>18812570</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16.5045</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>310492904.02</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16.5045</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7732692.5</v>
@@ -2756,10 +2754,10 @@
         <v>18617808</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>15.3256</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>285329539.47</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>15.3256</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>7364606.33</v>
@@ -2778,10 +2776,10 @@
         <v>18188523</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>14.8554</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>270198497.33</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>14.8554</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7676548.1</v>
@@ -2800,10 +2798,10 @@
         <v>18561212</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.4114</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>304614655.19</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.4114</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>7112915</v>
@@ -2822,10 +2820,10 @@
         <v>18617793</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>14.9846</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>278979592.09</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>14.9846</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>8014746</v>
@@ -2844,10 +2842,10 @@
         <v>17825637</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14.4171</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>256993287.92</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14.4171</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>7739650</v>
@@ -2866,10 +2864,10 @@
         <v>17656394</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>15.112</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>266824123</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>15.112</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>7121935</v>
@@ -2888,10 +2886,10 @@
         <v>18014125</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15.3537</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>276582637</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15.3537</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6831437</v>
@@ -2910,10 +2908,10 @@
         <v>18105245</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>14.8356</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>268601866</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>14.8356</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>6512786</v>
@@ -2932,10 +2930,10 @@
         <v>17974867</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.5447</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>279414224</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.5447</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>6212112</v>
@@ -2954,10 +2952,10 @@
         <v>18123398</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.8143</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>286609431</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.8143</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5558866</v>
@@ -2976,10 +2974,10 @@
         <v>18427499</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15.2817</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>281602740</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15.2817</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>5270041</v>
@@ -2998,10 +2996,10 @@
         <v>18672030</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.5819</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>290945057</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.5819</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>4794158</v>
@@ -3020,10 +3018,10 @@
         <v>18676485</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.1606</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>264470059</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.1606</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>4820899</v>
@@ -3042,10 +3040,10 @@
         <v>18743710</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.1456</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>265141702</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.1456</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>5111226</v>
@@ -3064,10 +3062,10 @@
         <v>18788588</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.2523</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>267780816</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.2523</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>4677886</v>
@@ -3086,10 +3084,10 @@
         <v>18787549</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.8008</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>240495149</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.8008</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>4645808</v>
@@ -3108,10 +3106,10 @@
         <v>19226309</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15.4955</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>297920700</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15.4955</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>4546930</v>
@@ -3130,10 +3128,10 @@
         <v>19152280</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15.2024</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>291160722</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15.2024</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>3883986</v>
@@ -3152,10 +3150,10 @@
         <v>19081117</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>14.6567</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>279666805</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>14.6567</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>4696214</v>
@@ -3174,10 +3172,10 @@
         <v>19056654</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>14.3123</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>272744024</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>14.3123</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>4305844</v>
@@ -3196,10 +3194,10 @@
         <v>19847230</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13.6232</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>270382986</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13.6232</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3731923</v>
@@ -3218,10 +3216,10 @@
         <v>20156980</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>14.1281</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>284780226</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>14.1281</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>3802044</v>
@@ -3240,10 +3238,10 @@
         <v>20091110</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15.2883</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>307158996</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15.2883</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>3848398</v>
@@ -3262,10 +3260,10 @@
         <v>20294210</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>13.4099</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>272143664</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>13.4099</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>4853538</v>
@@ -3284,10 +3282,10 @@
         <v>20377673</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13.7155</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>279489465</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13.7155</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3151476</v>
@@ -3306,10 +3304,10 @@
         <v>20773037</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>14.3478</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>298046840</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>14.3478</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3711652</v>
@@ -3328,10 +3326,10 @@
         <v>20680388</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>13.4657</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>278475083</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>13.4657</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>3358130</v>
@@ -3350,10 +3348,10 @@
         <v>21198893</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>14.3266</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>303708169</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>14.3266</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3177808</v>
@@ -3372,10 +3370,10 @@
         <v>21400713</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13.8416</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>296219250</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13.8416</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3214130</v>
@@ -3393,10 +3391,10 @@
         <v>21490412</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13.1204</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>281962819</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13.1204</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>3469459</v>
@@ -3414,10 +3412,10 @@
         <v>21391274</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12.6646</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>270912273</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12.6646</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3696522</v>
@@ -3435,10 +3433,10 @@
         <v>21726577</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>13.1027</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>284677697</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>13.1027</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3493111</v>
@@ -3456,10 +3454,10 @@
         <v>21991362</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12.2767</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>269981690</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12.2767</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>2832331</v>
@@ -3477,10 +3475,10 @@
         <v>22121772</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.4361</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>252986543</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.4361</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3291062</v>
@@ -3498,10 +3496,10 @@
         <v>22147875</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.2157</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>270551141</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.2157</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2625320</v>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3884,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3912,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3926,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3940,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3954,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3982,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3996,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4010,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4024,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1986198.81</v>
+        <v>122950822.66</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.005184779396757587</v>
+        <v>0.3209512003191483</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>120964623.85</v>
+        <v>383082607.38</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3157664209223907</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>383082607.38</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4071,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4127,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4226,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4240,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4254,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4268,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4282,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4296,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4310,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4324,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4352,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Kazajstán</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4366,44 +4355,36 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>882.61</v>
+        <v>3164068.100000001</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>5.515622771372439e-05</v>
+        <v>0.197729530172252</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>3163185.490000002</v>
+        <v>16002000.8</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1976743739445384</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>16002000.8</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4415,126 +4396,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="35" t="n"/>
+      <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="37" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="37" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="37" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="37" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="37" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="37" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="37" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="37" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="38" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="38" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="38" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="38" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="38" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="38" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="38" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="38" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="38" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4556,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4652,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4666,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4680,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4694,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4708,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4722,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uzbekistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4736,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4750,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4778,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Afganistán</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4792,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>154352</v>
+        <v>6548882.899999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.008680087047070203</v>
+        <v>0.3682807714384623</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>6394530.899999999</v>
+        <v>17782310.15</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3596006843913921</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>17782310.15</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4838,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="39" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="39" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="39" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="39" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="39" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="39" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="39" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="39" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="39" t="n"/>
-      <c r="D35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="39" t="n"/>
-      <c r="D36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4960,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5039,10 +5011,10 @@
         <v>4568813</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>20.4495</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>93430000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>20.4495</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.01</v>
@@ -5061,10 +5033,10 @@
         <v>4534830</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>20.3534</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>92299000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>20.3534</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5081,10 +5053,10 @@
         <v>4632500</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>20.367</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>94350000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>20.367</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -5103,10 +5075,10 @@
         <v>4673000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19.8588</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>92800000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19.8588</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5123,10 +5095,10 @@
         <v>4036300</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.1738</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>89500000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.1738</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.01</v>
@@ -5145,10 +5117,10 @@
         <v>4758070</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.9697</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>90259155</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18.9697</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.15</v>
@@ -5167,10 +5139,10 @@
         <v>4859920</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>18.2064</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>88481500</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>18.2064</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5.19</v>
@@ -5189,10 +5161,10 @@
         <v>4802400</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>17.6846</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>84928500</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>17.6846</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.01</v>
@@ -5211,10 +5183,10 @@
         <v>4785580</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>17.308</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>82828956.97</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>17.308</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.01</v>
@@ -5233,10 +5205,10 @@
         <v>4910410</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>17.1382</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>84155500</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>17.1382</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0</v>
@@ -5255,10 +5227,10 @@
         <v>5025760</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>17.0879</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>85879500</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>17.0879</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5277,10 +5249,10 @@
         <v>5030770</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>16.7685</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>84358500</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>16.7685</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5299,10 +5271,10 @@
         <v>5011300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>16.2778</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>81573000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>16.2778</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>191</v>
@@ -5321,10 +5293,10 @@
         <v>4885740</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>15.6643</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>76531500</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>15.6643</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5343,10 +5315,10 @@
         <v>4845200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>14.4131</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>69834500</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>14.4131</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4</v>
@@ -5365,10 +5337,10 @@
         <v>4518090</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>15.1775</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>68573500</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>15.1775</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10</v>
@@ -5387,10 +5359,10 @@
         <v>4360770</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>14.6243</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>63773000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>14.6243</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5409,10 +5381,10 @@
         <v>4211330</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>15.3126</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>64486500</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>15.3126</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>159</v>
@@ -5431,10 +5403,10 @@
         <v>4879830</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>14.5229</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>70869500</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>14.5229</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -5453,10 +5425,10 @@
         <v>4596680</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>15.7085</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>72207000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>15.7085</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>46</v>
@@ -5475,10 +5447,10 @@
         <v>4522270</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>15.0576</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>68094500</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>15.0576</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>3</v>
@@ -5497,10 +5469,10 @@
         <v>4667450</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>15.0377</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>70187500</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>15.0377</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>29</v>
@@ -5519,10 +5491,10 @@
         <v>4718790</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>13.6826</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>64565500</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>13.6826</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>92</v>
@@ -5541,10 +5513,10 @@
         <v>4723170</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>14.0319</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>66275000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>14.0319</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1034.4</v>
@@ -5563,10 +5535,10 @@
         <v>4417670</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12.6999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>56104000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12.6999</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1938</v>
@@ -5585,10 +5557,10 @@
         <v>4064220</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.8896</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>64579000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.8896</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>699</v>
@@ -5607,10 +5579,10 @@
         <v>3823960</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>14.9603</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>57207500</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>14.9603</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>218</v>
@@ -5629,10 +5601,10 @@
         <v>3736270</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>14.196</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>53040000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>14.196</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>785</v>
@@ -5651,10 +5623,10 @@
         <v>3433900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13.3813</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>45950000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13.3813</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>349</v>
@@ -5673,10 +5645,10 @@
         <v>3207700</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>13.6546</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>43800000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>13.6546</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>177</v>
@@ -5695,10 +5667,10 @@
         <v>3087140</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>14.8697</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>45905000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>14.8697</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>76</v>
@@ -5717,10 +5689,10 @@
         <v>2994700</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>12.6146</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>37777008</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>12.6146</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>173</v>
@@ -5739,10 +5711,10 @@
         <v>2879270</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>30405008</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>10.56</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>130</v>
@@ -5761,10 +5733,10 @@
         <v>2827700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11.3166</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>32000000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11.3166</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>17</v>
@@ -5783,10 +5755,10 @@
         <v>2822533</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11.0025</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>31055008</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11.0025</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>16</v>
@@ -5805,10 +5777,10 @@
         <v>2747000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>11.5107</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>31620000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>11.5107</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>58</v>
@@ -5827,10 +5799,10 @@
         <v>2588400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.3056</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>26675008</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.3056</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2</v>
@@ -5849,10 +5821,10 @@
         <v>2500000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>25000000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>10</v>
@@ -5871,10 +5843,10 @@
         <v>2478000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>10.795</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>26750000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>10.795</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5893,10 +5865,10 @@
         <v>2419220</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11.6542</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>28194000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>11.6542</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5915,10 +5887,10 @@
         <v>2443000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.3754</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>27790000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.3754</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5937,10 +5909,10 @@
         <v>2360000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10.8898</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>25700000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10.8898</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5959,10 +5931,10 @@
         <v>2400000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10.2792</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>24670000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10.2792</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5981,10 +5953,10 @@
         <v>2300000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>11.2435</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>25860000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>11.2435</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -6003,10 +5975,10 @@
         <v>2300000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.1365</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>25614000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.1365</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6025,10 +5997,10 @@
         <v>2240000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.7482</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>28556000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.7482</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6047,10 +6019,10 @@
         <v>2017000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13.2375</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>26700000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13.2375</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6069,10 +6041,10 @@
         <v>2000000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>22600000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.3</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6091,10 +6063,10 @@
         <v>2100000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.5714</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>24300000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.5714</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6113,10 +6085,10 @@
         <v>2000000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>26000000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6135,10 +6107,10 @@
         <v>2000000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>27000000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13.5</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6157,10 +6129,10 @@
         <v>2300000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10.2174</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>23500000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10.2174</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6179,10 +6151,10 @@
         <v>2100000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10.4762</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>22000000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10.4762</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6201,10 +6173,10 @@
         <v>2000000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>21500000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10.75</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6223,10 +6195,10 @@
         <v>1900000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>10.1579</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>19300000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>10.1579</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6245,10 +6217,10 @@
         <v>2000000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>17800000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.9</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6267,10 +6239,10 @@
         <v>2000000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>17900000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.949999999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6288,10 +6260,10 @@
         <v>2000000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>18000000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6309,10 +6281,10 @@
         <v>1700000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.411799999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>16000000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.411799999999999</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -6328,10 +6300,10 @@
         <v>1600000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>14000000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.75</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -6347,10 +6319,10 @@
         <v>1500000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12000000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -6366,10 +6338,10 @@
         <v>1500000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>13800000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>2000</v>
@@ -6387,10 +6359,10 @@
         <v>1300000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.9231</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12900000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.9231</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>3300</v>
@@ -6726,7 +6698,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6805,10 +6777,10 @@
         <v>2332000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>25.7899</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>60142000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>25.7899</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3199.23</v>
@@ -6827,10 +6799,10 @@
         <v>2226000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>25.2363</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>56176000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>25.2363</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4925.92</v>
@@ -6849,10 +6821,10 @@
         <v>2248000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>24.1237</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>54230000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>24.1237</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2932.95</v>
@@ -6871,10 +6843,10 @@
         <v>2051000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>23.6772</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>48562000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>23.6772</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>79.59999999999999</v>
@@ -6893,10 +6865,10 @@
         <v>2173000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.0971</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>50190000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.0971</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>10</v>
@@ -6915,10 +6887,10 @@
         <v>2142000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>23.9542</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>51310000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>23.9542</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>393.74</v>
@@ -6937,10 +6909,10 @@
         <v>2179000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>22.3061</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>48605000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>22.3061</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>458</v>
@@ -6959,10 +6931,10 @@
         <v>2117000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>20.5087</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>43417000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>20.5087</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6979,10 +6951,10 @@
         <v>2076000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>23.1257</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>48009000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>23.1257</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24.36</v>
@@ -7001,10 +6973,10 @@
         <v>2024000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>22.9224</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>46395000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>22.9224</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -7021,10 +6993,10 @@
         <v>1992200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>22.7606</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>45343600</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>22.7606</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -7043,10 +7015,10 @@
         <v>1907000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>21.753</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41483000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>21.753</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7065,10 +7037,10 @@
         <v>1863200</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>22.724</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>42339400</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>22.724</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7087,10 +7059,10 @@
         <v>1835300</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>19.9299</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>36577300</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>19.9299</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7109,10 +7081,10 @@
         <v>1828300</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>18.8103</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>34390900</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>18.8103</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7131,10 +7103,10 @@
         <v>1796000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>19.2973</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>34658000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>19.2973</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7153,10 +7125,10 @@
         <v>1742800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>16.4101</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>28599600</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>16.4101</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>120</v>
@@ -7175,10 +7147,10 @@
         <v>1569200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>18.592</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>29174600</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>18.592</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>47</v>
@@ -7197,10 +7169,10 @@
         <v>1523900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>18.8908</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>28787700</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>18.8908</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2408</v>
@@ -7219,10 +7191,10 @@
         <v>1484700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18.8091</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27925800</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18.8091</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4813</v>
@@ -7241,10 +7213,10 @@
         <v>1337200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>17.3208</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>23161400</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>17.3208</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2329</v>
@@ -7263,10 +7235,10 @@
         <v>1259500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>19.4173</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>24456100</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>19.4173</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7285,10 +7257,10 @@
         <v>1211300</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.3627</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>22242700</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.3627</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>183</v>
@@ -7307,10 +7279,10 @@
         <v>1340900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.6443</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>25000100</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.6443</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1192</v>
@@ -7329,10 +7301,10 @@
         <v>1280200</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17.5712</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>22494700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17.5712</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>17.68</v>
@@ -7351,10 +7323,10 @@
         <v>1208900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>14.602</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>17652300</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>14.602</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>61</v>
@@ -7373,10 +7345,10 @@
         <v>1248800</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>19.3913</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>24215900</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>19.3913</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2926</v>
@@ -7395,10 +7367,10 @@
         <v>1109000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16.9913</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>18843300</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16.9913</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>773</v>
@@ -7417,10 +7389,10 @@
         <v>1069400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>16.272</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17401300</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>16.272</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>313</v>
@@ -7439,10 +7411,10 @@
         <v>1047100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.6101</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17392400</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.6101</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>56</v>
@@ -7461,10 +7433,10 @@
         <v>1240000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>14.9024</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>18479000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>14.9024</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>44</v>
@@ -7483,10 +7455,10 @@
         <v>1135100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>16.0294</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>18195000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>16.0294</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>32</v>
@@ -7505,10 +7477,10 @@
         <v>935500</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15205600</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>16.254</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>22</v>
@@ -7527,10 +7499,10 @@
         <v>940000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>15.7136</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>14770800</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>15.7136</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7549,10 +7521,10 @@
         <v>932700</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15.929</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>14857000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15.929</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7571,10 +7543,10 @@
         <v>885100</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15.8694</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>14046000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15.8694</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7593,10 +7565,10 @@
         <v>831500</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.3221</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>12740300</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.3221</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>238</v>
@@ -7615,10 +7587,10 @@
         <v>843000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12.3639</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10422800</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12.3639</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>369</v>
@@ -7637,10 +7609,10 @@
         <v>849000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>14.8064</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>12570600</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>14.8064</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7659,10 +7631,10 @@
         <v>794300</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.2988</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>12151800</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.2988</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>409</v>
@@ -7681,10 +7653,10 @@
         <v>735000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>13.5456</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9956000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>13.5456</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>37</v>
@@ -7703,10 +7675,10 @@
         <v>762700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>12.9957</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>9911800</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>12.9957</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>198</v>
@@ -7725,10 +7697,10 @@
         <v>732000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13.2104</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9670000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13.2104</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>408</v>
@@ -7747,10 +7719,10 @@
         <v>685200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.1521</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8326600</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.1521</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>534</v>
@@ -7769,10 +7741,10 @@
         <v>807100</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>12.5548</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>10133000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>12.5548</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>232</v>
@@ -7791,10 +7763,10 @@
         <v>665300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.2282</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8135400</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.2282</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>390</v>
@@ -7813,10 +7785,10 @@
         <v>619600</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>11.5731</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7170700</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>11.5731</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>934</v>
@@ -7835,10 +7807,10 @@
         <v>622400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.7384</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>7306000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.7384</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1085</v>
@@ -7857,10 +7829,10 @@
         <v>587400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>10.5982</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6225400</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>10.5982</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>758</v>
@@ -7879,10 +7851,10 @@
         <v>543400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.9457</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4861100</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.9457</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>383</v>
@@ -7901,10 +7873,10 @@
         <v>504600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.820799999999998</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4451000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.820799999999998</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>448</v>
@@ -7923,10 +7895,10 @@
         <v>491900</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.809899999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4825500</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.809899999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1002</v>
@@ -7945,10 +7917,10 @@
         <v>481900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.9755</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4807200</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.9755</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>710</v>
@@ -7967,10 +7939,10 @@
         <v>496000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>7.8883</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>3912600</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>7.8883</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2182</v>
@@ -7989,10 +7961,10 @@
         <v>524400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.011299999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4725500</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.011299999999999</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1307</v>
@@ -8011,10 +7983,10 @@
         <v>501400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.441000000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4232300</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.441000000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1272</v>
@@ -8033,10 +8005,10 @@
         <v>473300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.440300000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3521500</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.440300000000001</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3018</v>
@@ -8054,10 +8026,10 @@
         <v>479000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.509399999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4076000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.509399999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>799</v>
@@ -8075,10 +8047,10 @@
         <v>429000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.4033</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3605000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.4033</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1598</v>
@@ -8096,10 +8068,10 @@
         <v>415000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6.2482</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2593000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6.2482</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2428</v>
@@ -8117,10 +8089,10 @@
         <v>413000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.1477</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3365000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.1477</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>827</v>
@@ -8138,10 +8110,10 @@
         <v>365000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.7041</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2447000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.7041</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1151</v>
@@ -8159,10 +8131,10 @@
         <v>375000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7.2507</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2719000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>7.2507</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>1325</v>
@@ -8498,7 +8470,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8577,10 +8549,10 @@
         <v>1210200</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>17.6488</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>21358630</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>17.6488</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>12936.34</v>
@@ -8599,10 +8571,10 @@
         <v>1204300</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>17.3538</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>20899210</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>17.3538</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13942.14</v>
@@ -8621,10 +8593,10 @@
         <v>1283200</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>16.643</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>21356320</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>16.643</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>193058.49</v>
@@ -8643,10 +8615,10 @@
         <v>1325200</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>15.7244</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>20837990</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>15.7244</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>301667.77</v>
@@ -8665,10 +8637,10 @@
         <v>1308800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>15.4869</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>20269190</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>15.4869</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>250602.44</v>
@@ -8687,10 +8659,10 @@
         <v>1319900</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>17.0498</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22503970</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>17.0498</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>5760.37</v>
@@ -8709,10 +8681,10 @@
         <v>1323200</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>16.7837</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>22208220</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>16.7837</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3820.64</v>
@@ -8731,10 +8703,10 @@
         <v>1311600</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>16.583</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>21750290</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>16.583</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9774</v>
@@ -8753,10 +8725,10 @@
         <v>1291000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>16.142</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>20839270</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>16.142</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1752.8</v>
@@ -8775,10 +8747,10 @@
         <v>1342800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>17.6447</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>23693350</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>17.6447</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>21840.07</v>
@@ -8797,10 +8769,10 @@
         <v>1394090</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>15.9664</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>22258600</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>15.9664</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>5175</v>
@@ -8819,10 +8791,10 @@
         <v>1444100</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>16.1001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>23250200</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>16.1001</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>6267</v>
@@ -8841,10 +8813,10 @@
         <v>1443000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>16.8039</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>24248000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>16.8039</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>23845</v>
@@ -8863,10 +8835,10 @@
         <v>1411900</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>13.2481</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>18705000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>13.2481</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>15251</v>
@@ -8885,10 +8857,10 @@
         <v>1411800</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>13.9298</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>19666100</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>13.9298</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>5628</v>
@@ -8907,10 +8879,10 @@
         <v>1408900</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>13.8728</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>19545400</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>13.8728</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>9762</v>
@@ -8929,10 +8901,10 @@
         <v>1453300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>13.1439</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>19102000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>13.1439</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6459</v>
@@ -8951,10 +8923,10 @@
         <v>1461500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13.3199</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>19467100</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13.3199</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>20740</v>
@@ -8973,10 +8945,10 @@
         <v>1515900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>12.8388</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>19462400</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>12.8388</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2469</v>
@@ -8995,10 +8967,10 @@
         <v>1556000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>13.3386</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>20754800</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>13.3386</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1416</v>
@@ -9017,10 +8989,10 @@
         <v>1586900</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>11.6283</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>18453000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>11.6283</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>841</v>
@@ -9039,10 +9011,10 @@
         <v>1592300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>10.4374</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>16619500</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>10.4374</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>6785</v>
@@ -9061,10 +9033,10 @@
         <v>1604700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>10.8079</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>17343500</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>10.8079</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1568</v>
@@ -9083,10 +9055,10 @@
         <v>1631000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12.1632</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>19838100</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12.1632</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>10543</v>
@@ -9105,10 +9077,10 @@
         <v>1551100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.2026</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12723000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8.2026</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>4182</v>
@@ -9127,10 +9099,10 @@
         <v>1513200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10.1804</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15405000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10.1804</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3603</v>
@@ -9149,10 +9121,10 @@
         <v>1577400</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>10.5875</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16700800</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>10.5875</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3004</v>
@@ -9171,10 +9143,10 @@
         <v>1548900</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11.8859</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>18410000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11.8859</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>44833</v>
@@ -9193,10 +9165,10 @@
         <v>1530600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9.623299999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>14729400</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9.623299999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>38233</v>
@@ -9215,10 +9187,10 @@
         <v>1527000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.5449</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16102000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.5449</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7769</v>
@@ -9237,10 +9209,10 @@
         <v>1534000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13.6956</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>21009000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13.6956</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3000</v>
@@ -9259,10 +9231,10 @@
         <v>1705287</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>11.8906</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>20276816</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>11.8906</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>40000</v>
@@ -9274,387 +9246,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -9964,7 +10271,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10043,10 +10350,10 @@
         <v>388580</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>51.4491</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>19992090</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>51.4491</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>632597.9</v>
@@ -10065,10 +10372,10 @@
         <v>371590</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>49.0779</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18236860</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>49.0779</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>606723.02</v>
@@ -10087,10 +10394,10 @@
         <v>376200</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>49.7528</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>18717000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>49.7528</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>467523.07</v>
@@ -10109,10 +10416,10 @@
         <v>368960</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>51.6365</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19051790</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>51.6365</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>501488.53</v>
@@ -10131,10 +10438,10 @@
         <v>379320</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>50.75219999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>19251320</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>50.75219999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>412406.78</v>
@@ -10153,10 +10460,10 @@
         <v>410670</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>49.7274</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>20421560</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>49.7274</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>486481.99</v>
@@ -10175,10 +10482,10 @@
         <v>422690</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>48.3887</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>20453430</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>48.3887</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>501793.57</v>
@@ -10197,10 +10504,10 @@
         <v>419943</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>48.64080000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>20426359</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>48.64080000000001</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>495933.11</v>
@@ -10219,10 +10526,10 @@
         <v>426710</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>20012720</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>46.9</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>400194.12</v>
@@ -10241,10 +10548,10 @@
         <v>425370</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>47.1507</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>20056500</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>47.1507</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>466379.81</v>
@@ -10263,10 +10570,10 @@
         <v>425290</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>46.35769999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>19715480</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>46.35769999999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>390746</v>
@@ -10285,10 +10592,10 @@
         <v>460735</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>45.7762</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>21090685</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>45.7762</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>353016</v>
@@ -10307,10 +10614,10 @@
         <v>436454</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>44.6923</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>19506150</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>44.6923</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>491543</v>
@@ -10329,10 +10636,10 @@
         <v>408288</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>44.9438</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>18350034</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>44.9438</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>415411</v>
@@ -10351,10 +10658,10 @@
         <v>422492</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>46.4446</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>19622476</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>46.4446</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>424687</v>
@@ -10373,10 +10680,10 @@
         <v>423666</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>44.4373</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18826578</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>44.4373</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>534146</v>
@@ -10395,10 +10702,10 @@
         <v>454143</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>44.4336</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>20179192</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>44.4336</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>501590</v>
@@ -10417,10 +10724,10 @@
         <v>453334</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>44.0949</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>19989724</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>44.0949</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>370775</v>
@@ -10439,10 +10746,10 @@
         <v>439574</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>43.7303</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>19222700</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>43.7303</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>357378</v>
@@ -10461,10 +10768,10 @@
         <v>471869</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>43.8152</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>20675012</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>43.8152</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>342483</v>
@@ -10483,10 +10790,10 @@
         <v>505701</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>41.0985</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>20783556</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>41.0985</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>395665</v>
@@ -10505,10 +10812,10 @@
         <v>512297</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>40.5669</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>20782288</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>40.5669</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>400578</v>
@@ -10527,10 +10834,10 @@
         <v>494086</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>40.1803</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>19852512</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>40.1803</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>304388</v>
@@ -10549,10 +10856,10 @@
         <v>545320</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>42.7161</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>23293964</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>42.7161</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>365350.3</v>
@@ -10571,10 +10878,10 @@
         <v>538960</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>40.2366</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>21685930</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>40.2366</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>418862</v>
@@ -10593,10 +10900,10 @@
         <v>561260</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>38.4419</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21575890</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>38.4419</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>481273</v>
@@ -10615,10 +10922,10 @@
         <v>547780</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>38.67769999999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>21186890</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>38.67769999999999</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>346916</v>
@@ -10637,10 +10944,10 @@
         <v>577040</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>39.24469999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>22645780</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>39.24469999999999</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>447454</v>
@@ -10659,10 +10966,10 @@
         <v>556890</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>36.25369999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>20189350</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>36.25369999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>310651</v>
@@ -10681,10 +10988,10 @@
         <v>560530</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>37.9868</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>21292760</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>37.9868</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>291575</v>
@@ -10703,10 +11010,10 @@
         <v>534670</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>36.5091</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>19520300</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>36.5091</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>323229</v>
@@ -10725,10 +11032,10 @@
         <v>532200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>36.2533</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>19294000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>36.2533</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>182156</v>
@@ -10747,10 +11054,10 @@
         <v>556200</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>34.0579</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>18943008</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>34.0579</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>279509</v>
@@ -10769,10 +11076,10 @@
         <v>554700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>32.8809</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>18239008</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>32.8809</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>372140</v>
@@ -10791,10 +11098,10 @@
         <v>518600</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>32.4007</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>16803008</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>32.4007</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>304033</v>
@@ -10813,10 +11120,10 @@
         <v>509600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>31.7265</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>16167800</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>31.7265</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>219275</v>
@@ -10835,10 +11142,10 @@
         <v>523400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>33.7394</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>17659200</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>33.7394</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>226698</v>
@@ -10857,10 +11164,10 @@
         <v>496400</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>33.054</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>16408000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>33.054</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>156283</v>
@@ -10879,10 +11186,10 @@
         <v>552700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>33.3689</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>18443008</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>33.3689</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>184100</v>
@@ -10901,10 +11208,10 @@
         <v>527900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>31.1082</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>16422000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>31.1082</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>147485</v>
@@ -10923,10 +11230,10 @@
         <v>505000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>29.9754</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>15137600</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>29.9754</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>158342</v>
@@ -10945,10 +11252,10 @@
         <v>515400</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>31.2544</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>16108500</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>31.2544</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>217027</v>
@@ -10967,10 +11274,10 @@
         <v>501300</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>30.8199</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15450000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>30.8199</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>177967</v>
@@ -10989,10 +11296,10 @@
         <v>466900</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>29.5245</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13785000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>29.5245</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>99049</v>
@@ -11011,10 +11318,10 @@
         <v>511900</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>30.344</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15533100</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>30.344</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>72317</v>
@@ -11033,10 +11340,10 @@
         <v>559100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>29.7185</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>16615640</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>29.7185</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>68103</v>
@@ -11055,10 +11362,10 @@
         <v>553300</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>29.1299</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>16117595</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>29.1299</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>48283</v>
@@ -11077,10 +11384,10 @@
         <v>557900</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>29.0794</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16223372</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>29.0794</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>24152</v>
@@ -11099,10 +11406,10 @@
         <v>512400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>28.5023</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14604600</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>28.5023</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>64413</v>
@@ -11121,10 +11428,10 @@
         <v>566100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>27.4345</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>15530695</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>27.4345</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>85050</v>
@@ -11143,10 +11450,10 @@
         <v>531500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>25.6036</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13608290</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>25.6036</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>38789</v>
@@ -11165,10 +11472,10 @@
         <v>510800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>26.3167</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>13442548</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>26.3167</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>34295</v>
@@ -11187,10 +11494,10 @@
         <v>565900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>25.5955</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>14484500</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>25.5955</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>67332</v>
@@ -11209,10 +11516,10 @@
         <v>578000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>25.5609</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>14774200</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>25.5609</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>87534</v>
@@ -11231,10 +11538,10 @@
         <v>573080</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>24.746</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>14181460</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>24.746</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>106539</v>
@@ -11253,10 +11560,10 @@
         <v>560045</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>23.9308</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>13402328</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>23.9308</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>69518</v>
@@ -11275,10 +11582,10 @@
         <v>591043</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>23.4712</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13872474</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>23.4712</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>93360</v>
@@ -11296,10 +11603,10 @@
         <v>592136</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>23.5409</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13939424</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>23.5409</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>127254</v>
@@ -11317,10 +11624,10 @@
         <v>560057</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>23.5879</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>13210568</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>23.5879</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>112212</v>
@@ -11338,10 +11645,10 @@
         <v>515019</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>21.2448</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10941455</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>21.2448</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>123975</v>
@@ -11359,10 +11666,10 @@
         <v>535715</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>22.971</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12305931</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>22.971</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>33055</v>
@@ -11380,10 +11687,10 @@
         <v>545416</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>22.0346</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12018000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>22.0346</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>48960</v>
@@ -11401,10 +11708,10 @@
         <v>599268</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>22.2021</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>13305000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>22.2021</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>31994</v>
@@ -11740,7 +12047,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11819,10 +12126,10 @@
         <v>1105425</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>17.5267</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>19374440.76</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>17.5267</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>274438.7</v>
@@ -11841,10 +12148,10 @@
         <v>1086482</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>17.3842</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18887678.75</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>17.3842</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>479379.61</v>
@@ -11863,10 +12170,10 @@
         <v>1142111</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>16.0191</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>18295535.1</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>16.0191</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>546191.66</v>
@@ -11885,10 +12192,10 @@
         <v>1178098</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>16.6432</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19607361</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>16.6432</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>316224.58</v>
@@ -11907,10 +12214,10 @@
         <v>1238575</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>17.8228</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22074873.5</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>17.8228</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>300777.11</v>
@@ -11929,10 +12236,10 @@
         <v>1313495</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>17.0499</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22394960</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>17.0499</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>572966.42</v>
@@ -11951,10 +12258,10 @@
         <v>1335560</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>16.2536</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21707645</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>16.2536</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>560637.42</v>
@@ -11973,10 +12280,10 @@
         <v>1425570</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>15.7575</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>22463487</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>15.7575</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>285490.08</v>
@@ -11995,10 +12302,10 @@
         <v>2111613</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>15.9337</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>33645799.4</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>15.9337</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>549244.36</v>
@@ -12017,10 +12324,10 @@
         <v>2101461</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>14.9902</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>31501353.6</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>14.9902</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>689726.2</v>
@@ -12039,10 +12346,10 @@
         <v>2087824</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>14.4644</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>30199126</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>14.4644</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>448203</v>
@@ -12061,10 +12368,10 @@
         <v>2197170</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>13.4412</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>29532530</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>13.4412</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>461124</v>
@@ -12083,10 +12390,10 @@
         <v>2202576</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>14.8378</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>32681467</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>14.8378</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1466232</v>
@@ -12105,10 +12412,10 @@
         <v>2109109</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10.0234</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>21140539</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10.0234</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>664348</v>
@@ -12127,10 +12434,10 @@
         <v>2182355</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>14.2662</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>31133958</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>14.2662</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>374155</v>
@@ -12149,10 +12456,10 @@
         <v>2097220</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>13.7546</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>28846360</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>13.7546</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>537495</v>
@@ -12171,10 +12478,10 @@
         <v>2060543</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>13.1981</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>27195248</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>13.1981</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>251728</v>
@@ -12193,10 +12500,10 @@
         <v>2120042</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13.3298</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>28259734</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13.3298</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>370929</v>
@@ -12215,10 +12522,10 @@
         <v>2272613</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>12.3809</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>28136991</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>12.3809</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>376576</v>
@@ -12237,10 +12544,10 @@
         <v>2403353</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>11.5989</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27876247</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>11.5989</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>161220</v>
@@ -12259,10 +12566,10 @@
         <v>2515808</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>11.6696</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>29358474</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>11.6696</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>508006</v>
@@ -12281,10 +12588,10 @@
         <v>2619379</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>10.2782</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>26922502</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>10.2782</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>192971</v>
@@ -12303,10 +12610,10 @@
         <v>2720991</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>10.8412</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>29498810</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>10.8412</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>95724</v>
@@ -12325,10 +12632,10 @@
         <v>2814266</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>10.4698</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>29464801</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>10.4698</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>269375.42</v>
@@ -12347,10 +12654,10 @@
         <v>2900538</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.6526</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>27997731</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9.6526</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>204285</v>
@@ -12369,10 +12676,10 @@
         <v>2981728</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.7102</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>28953172</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.7102</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>138185</v>
@@ -12391,10 +12698,10 @@
         <v>3154351</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>11.1394</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>35137578</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>11.1394</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>119192</v>
@@ -12413,10 +12720,10 @@
         <v>3288334</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>37618541</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11.44</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>58827</v>
@@ -12435,10 +12742,10 @@
         <v>3390750</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>39909130</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11.77</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>61951</v>
@@ -12457,10 +12764,10 @@
         <v>3300256</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>33827622</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.25</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>123419</v>
@@ -12479,10 +12786,10 @@
         <v>3466885</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>37650371</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10.86</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>226000</v>
@@ -12501,10 +12808,10 @@
         <v>3371126</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>38329700</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>11.37</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>425000</v>
@@ -12516,387 +12823,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Papas, patatas.xlsx
+++ b/Resultados/Mercado mundial - Papas, patatas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ucrania" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Ukraine" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Russian Federation" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,10 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +408,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +434,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +490,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +516,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +572,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +598,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
+              <f>'Países exportadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +654,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +680,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +736,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +762,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +818,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +844,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +900,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +926,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ucrania'!$B$12:$B$74</f>
+              <f>'Ukraine'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ucrania'!$C$12:$C$74</f>
+              <f>'Ukraine'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +982,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1008,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1064,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1090,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Federación de Rusia'!$B$12:$B$74</f>
+              <f>'Russian Federation'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Federación de Rusia'!$C$12:$C$74</f>
+              <f>'Russian Federation'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1164,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1204,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1234,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1274,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1286,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1304,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1344,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1356,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1374,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1414,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1441,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1463,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1478,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1493,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1515,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1530,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1545,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1567,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1582,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1597,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1619,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1634,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1649,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2061,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2140,10 @@
         <v>16799108</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>383082607.38</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.8037</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>383082607.38</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>17782310.15</v>
@@ -2160,10 +2162,10 @@
         <v>16656505</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>373399784.6</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22.4177</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>373399784.6</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>16499709.71</v>
@@ -2182,10 +2184,10 @@
         <v>16838602</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>373645571.86</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.1898</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>373645571.86</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>15842842.3</v>
@@ -2204,10 +2206,10 @@
         <v>16754745</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>368837532.68</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.0139</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>368837532.68</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15219543.23</v>
@@ -2226,10 +2228,10 @@
         <v>16338682</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>365804927.32</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.3889</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>365804927.32</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>15449434.3</v>
@@ -2248,10 +2250,10 @@
         <v>17162825</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>364742705.41</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.2519</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>364742705.41</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>14863030.55</v>
@@ -2270,10 +2272,10 @@
         <v>17423554</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>369278999.6</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21.1942</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>369278999.6</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>14424143.8</v>
@@ -2292,10 +2294,10 @@
         <v>17389992</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>354236120.77</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>20.3701</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>354236120.77</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>13394338.65</v>
@@ -2314,10 +2316,10 @@
         <v>18038687</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>365656470.2</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>20.2707</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>365656470.2</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>12464728.02</v>
@@ -2336,10 +2338,10 @@
         <v>18034126</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>369470819.41</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>20.4873</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>369470819.41</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>12548689.15</v>
@@ -2358,10 +2360,10 @@
         <v>18516362</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>366327121.93</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>19.784</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>366327121.93</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>13023852</v>
@@ -2380,10 +2382,10 @@
         <v>18703422</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>362218226.58</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>19.3664</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>362218226.58</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>12082027</v>
@@ -2402,10 +2404,10 @@
         <v>18706222</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>369067748.33</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>19.7297</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>369067748.33</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>12448214.5</v>
@@ -2424,10 +2426,10 @@
         <v>18179292</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>328775588.76</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>18.0852</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>328775588.76</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>10953903</v>
@@ -2446,10 +2448,10 @@
         <v>18585195</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>330884154.45</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>17.8036</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>330884154.45</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>9775362.09</v>
@@ -2468,10 +2470,10 @@
         <v>18168824</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>327311701.99</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.015</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>327311701.99</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10211765.2</v>
@@ -2490,10 +2492,10 @@
         <v>18012300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>313306461.95</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>17.394</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>313306461.95</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>10500530.74</v>
@@ -2512,10 +2514,10 @@
         <v>17804218</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>307665613.47</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>17.2805</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>307665613.47</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>9694463.23</v>
@@ -2534,10 +2536,10 @@
         <v>18756473</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>317739870.99</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>16.9403</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>317739870.99</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>9121534.189999999</v>
@@ -2556,10 +2558,10 @@
         <v>18743968</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>328218313.58</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>17.5106</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>328218313.58</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>9077761.75</v>
@@ -2578,10 +2580,10 @@
         <v>18705701</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>307664029.96</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>16.4476</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>307664029.96</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>9366424.029999999</v>
@@ -2600,10 +2602,10 @@
         <v>18820263</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>309865038.85</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>16.4644</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>309865038.85</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>8595167.34</v>
@@ -2622,10 +2624,10 @@
         <v>19440778</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>305546154.95</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>15.7168</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>305546154.95</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8236772.22</v>
@@ -2644,10 +2646,10 @@
         <v>19897848</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>322817990.86</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>16.2238</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>322817990.86</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7938027.98</v>
@@ -2666,10 +2668,10 @@
         <v>19590963</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>296109752.06</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>15.1146</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>296109752.06</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7760677.81</v>
@@ -2688,10 +2690,10 @@
         <v>18768037</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>297833665.57</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.8692</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>297833665.57</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>8246836.39</v>
@@ -2710,10 +2712,10 @@
         <v>18798686</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>301078088.87</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16.0159</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>301078088.87</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>7248539.38</v>
@@ -2732,10 +2734,10 @@
         <v>18812570</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>310492904.02</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16.5045</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>310492904.02</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7732692.5</v>
@@ -2754,10 +2756,10 @@
         <v>18617808</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>285329539.47</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>15.3256</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>285329539.47</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>7364606.33</v>
@@ -2776,10 +2778,10 @@
         <v>18188523</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>270198497.33</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>14.8554</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>270198497.33</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7676548.1</v>
@@ -2798,10 +2800,10 @@
         <v>18561212</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>304614655.19</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.4114</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>304614655.19</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>7112915</v>
@@ -2820,10 +2822,10 @@
         <v>18617793</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>278979592.09</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>14.9846</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>278979592.09</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>8014746</v>
@@ -2842,10 +2844,10 @@
         <v>17825637</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>256993287.92</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14.4171</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>256993287.92</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>7739650</v>
@@ -2864,10 +2866,10 @@
         <v>17656394</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>266824123</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>15.112</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>266824123</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>7121935</v>
@@ -2886,10 +2888,10 @@
         <v>18014125</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>276582637</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15.3537</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>276582637</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6831437</v>
@@ -2908,10 +2910,10 @@
         <v>18105245</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>268601866</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>14.8356</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>268601866</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>6512786</v>
@@ -2930,10 +2932,10 @@
         <v>17974867</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>279414224</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.5447</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>279414224</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>6212112</v>
@@ -2952,10 +2954,10 @@
         <v>18123398</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>286609431</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.8143</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>286609431</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5558866</v>
@@ -2974,10 +2976,10 @@
         <v>18427499</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>281602740</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15.2817</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>281602740</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>5270041</v>
@@ -2996,10 +2998,10 @@
         <v>18672030</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>290945057</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.5819</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>290945057</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>4794158</v>
@@ -3018,10 +3020,10 @@
         <v>18676485</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>264470059</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.1606</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>264470059</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>4820899</v>
@@ -3040,10 +3042,10 @@
         <v>18743710</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>265141702</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.1456</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>265141702</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>5111226</v>
@@ -3062,10 +3064,10 @@
         <v>18788588</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>267780816</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.2523</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>267780816</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>4677886</v>
@@ -3084,10 +3086,10 @@
         <v>18787549</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>240495149</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.8008</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>240495149</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>4645808</v>
@@ -3106,10 +3108,10 @@
         <v>19226309</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>297920700</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15.4955</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>297920700</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>4546930</v>
@@ -3128,10 +3130,10 @@
         <v>19152280</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>291160722</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15.2024</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>291160722</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>3883986</v>
@@ -3150,10 +3152,10 @@
         <v>19081117</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>279666805</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>14.6567</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>279666805</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>4696214</v>
@@ -3172,10 +3174,10 @@
         <v>19056654</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>272744024</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>14.3123</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>272744024</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>4305844</v>
@@ -3194,10 +3196,10 @@
         <v>19847230</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>270382986</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13.6232</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>270382986</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3731923</v>
@@ -3216,10 +3218,10 @@
         <v>20156980</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>284780226</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>14.1281</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>284780226</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>3802044</v>
@@ -3238,10 +3240,10 @@
         <v>20091110</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>307158996</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15.2883</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>307158996</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>3848398</v>
@@ -3260,10 +3262,10 @@
         <v>20294210</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>272143664</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>13.4099</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>272143664</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>4853538</v>
@@ -3282,10 +3284,10 @@
         <v>20377673</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>279489465</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13.7155</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>279489465</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3151476</v>
@@ -3304,10 +3306,10 @@
         <v>20773037</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>298046840</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>14.3478</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>298046840</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3711652</v>
@@ -3326,10 +3328,10 @@
         <v>20680388</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>278475083</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>13.4657</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>278475083</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>3358130</v>
@@ -3348,10 +3350,10 @@
         <v>21198893</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>303708169</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>14.3266</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>303708169</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3177808</v>
@@ -3370,10 +3372,10 @@
         <v>21400713</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>296219250</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13.8416</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>296219250</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3214130</v>
@@ -3391,10 +3393,10 @@
         <v>21490412</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>281962819</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13.1204</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>281962819</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>3469459</v>
@@ -3412,10 +3414,10 @@
         <v>21391274</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>270912273</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12.6646</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>270912273</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3696522</v>
@@ -3433,10 +3435,10 @@
         <v>21726577</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>284677697</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>13.1027</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>284677697</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3493111</v>
@@ -3454,10 +3456,10 @@
         <v>21991362</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>269981690</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12.2767</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>269981690</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>2832331</v>
@@ -3475,10 +3477,10 @@
         <v>22121772</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>252986543</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.4361</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>252986543</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3291062</v>
@@ -3496,10 +3498,10 @@
         <v>22147875</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>270551141</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.2157</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>270551141</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2625320</v>
@@ -3786,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3884,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3910,7 +3912,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3926,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3940,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3954,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3980,7 +3982,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3996,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4010,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4022,35 +4024,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>122950822.66</v>
+        <v>1986198.81</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3209512003191483</v>
+        <v>0.005184779396757587</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>120964623.85</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3157664209223907</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>383082607.38</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4071,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4127,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4226,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4240,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4254,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4268,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4282,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4296,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4310,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4324,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4341,7 +4352,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Kazajstán</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4355,36 +4366,44 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>3164068.100000001</v>
+        <v>882.61</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.197729530172252</v>
+        <v>5.515622771372439e-05</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>16002000.8</v>
+        <v>3163185.490000002</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>1</v>
+        <v>0.1976743739445384</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>16002000.8</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4396,126 +4415,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="29" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="37" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="37" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="37" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="37" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="37" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="37" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="37" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="37" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="37" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="37" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="38" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="38" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="38" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="38" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="38" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="38" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="38" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="38" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="38" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4556,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4652,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4666,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4680,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4694,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4708,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4722,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistán</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4736,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4750,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4778,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Afganistán</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4792,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>6548882.899999999</v>
+        <v>154352</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3682807714384623</v>
+        <v>0.008680087047070203</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>6394530.899999999</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3596006843913921</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>17782310.15</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4838,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="39" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="39" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="39" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="39" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="39" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="39" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="39" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="39" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="39" t="n"/>
+      <c r="D35" s="38" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="39" t="n"/>
+      <c r="D36" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4960,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5039,10 @@
         <v>4568813</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>93430000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>20.4495</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>93430000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.01</v>
@@ -5033,10 +5061,10 @@
         <v>4534830</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>92299000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>20.3534</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>92299000</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5053,10 +5081,10 @@
         <v>4632500</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>94350000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>20.367</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>94350000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -5075,10 +5103,10 @@
         <v>4673000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>92800000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19.8588</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>92800000</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5095,10 +5123,10 @@
         <v>4036300</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>89500000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.1738</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>89500000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.01</v>
@@ -5117,10 +5145,10 @@
         <v>4758070</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>90259155</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.9697</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>90259155</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.15</v>
@@ -5139,10 +5167,10 @@
         <v>4859920</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>88481500</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>18.2064</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>88481500</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5.19</v>
@@ -5161,10 +5189,10 @@
         <v>4802400</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>84928500</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>17.6846</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>84928500</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.01</v>
@@ -5183,10 +5211,10 @@
         <v>4785580</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>82828956.97</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>17.308</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>82828956.97</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.01</v>
@@ -5205,10 +5233,10 @@
         <v>4910410</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>84155500</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>17.1382</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>84155500</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0</v>
@@ -5227,10 +5255,10 @@
         <v>5025760</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>85879500</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>17.0879</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>85879500</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5249,10 +5277,10 @@
         <v>5030770</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>84358500</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>16.7685</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>84358500</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5271,10 +5299,10 @@
         <v>5011300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>81573000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>16.2778</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>81573000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>191</v>
@@ -5293,10 +5321,10 @@
         <v>4885740</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>76531500</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>15.6643</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>76531500</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5315,10 +5343,10 @@
         <v>4845200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>69834500</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>14.4131</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>69834500</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4</v>
@@ -5337,10 +5365,10 @@
         <v>4518090</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>68573500</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>15.1775</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>68573500</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10</v>
@@ -5359,10 +5387,10 @@
         <v>4360770</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>63773000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>14.6243</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>63773000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5381,10 +5409,10 @@
         <v>4211330</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>64486500</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>15.3126</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>64486500</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>159</v>
@@ -5403,10 +5431,10 @@
         <v>4879830</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>70869500</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>14.5229</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>70869500</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -5425,10 +5453,10 @@
         <v>4596680</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>72207000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>15.7085</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>72207000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>46</v>
@@ -5447,10 +5475,10 @@
         <v>4522270</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>68094500</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>15.0576</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>68094500</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>3</v>
@@ -5469,10 +5497,10 @@
         <v>4667450</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>70187500</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>15.0377</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>70187500</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>29</v>
@@ -5491,10 +5519,10 @@
         <v>4718790</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>64565500</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>13.6826</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>64565500</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>92</v>
@@ -5513,10 +5541,10 @@
         <v>4723170</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>66275000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>14.0319</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>66275000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1034.4</v>
@@ -5535,10 +5563,10 @@
         <v>4417670</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>56104000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12.6999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>56104000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1938</v>
@@ -5557,10 +5585,10 @@
         <v>4064220</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>64579000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.8896</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>64579000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>699</v>
@@ -5579,10 +5607,10 @@
         <v>3823960</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>57207500</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>14.9603</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>57207500</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>218</v>
@@ -5601,10 +5629,10 @@
         <v>3736270</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>53040000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>14.196</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>53040000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>785</v>
@@ -5623,10 +5651,10 @@
         <v>3433900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>45950000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13.3813</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>45950000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>349</v>
@@ -5645,10 +5673,10 @@
         <v>3207700</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>13.6546</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>43800000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>177</v>
@@ -5667,10 +5695,10 @@
         <v>3087140</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>45905000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>14.8697</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>45905000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>76</v>
@@ -5689,10 +5717,10 @@
         <v>2994700</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>37777008</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>12.6146</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>37777008</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>173</v>
@@ -5711,10 +5739,10 @@
         <v>2879270</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>30405008</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>10.56</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>30405008</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>130</v>
@@ -5733,10 +5761,10 @@
         <v>2827700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11.3166</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>32000000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>17</v>
@@ -5755,10 +5783,10 @@
         <v>2822533</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>31055008</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11.0025</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>31055008</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>16</v>
@@ -5777,10 +5805,10 @@
         <v>2747000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>31620000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>11.5107</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>31620000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>58</v>
@@ -5799,10 +5827,10 @@
         <v>2588400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>26675008</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.3056</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>26675008</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2</v>
@@ -5821,10 +5849,10 @@
         <v>2500000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>25000000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>10</v>
@@ -5843,10 +5871,10 @@
         <v>2478000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>26750000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>10.795</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>26750000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5865,10 +5893,10 @@
         <v>2419220</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>28194000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11.6542</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>28194000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5887,10 +5915,10 @@
         <v>2443000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>27790000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.3754</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>27790000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5909,10 +5937,10 @@
         <v>2360000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>25700000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10.8898</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>25700000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5931,10 +5959,10 @@
         <v>2400000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>24670000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10.2792</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>24670000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5953,10 +5981,10 @@
         <v>2300000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>25860000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>11.2435</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>25860000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5975,10 +6003,10 @@
         <v>2300000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>25614000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.1365</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>25614000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5997,10 +6025,10 @@
         <v>2240000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>28556000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.7482</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>28556000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6019,10 +6047,10 @@
         <v>2017000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>26700000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13.2375</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>26700000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6041,10 +6069,10 @@
         <v>2000000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>22600000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.3</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>22600000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6063,10 +6091,10 @@
         <v>2100000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>24300000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.5714</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>24300000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6085,10 +6113,10 @@
         <v>2000000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>26000000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6107,10 +6135,10 @@
         <v>2000000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13.5</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>27000000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6129,10 +6157,10 @@
         <v>2300000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>23500000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10.2174</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>23500000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6151,10 +6179,10 @@
         <v>2100000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10.4762</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>22000000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6173,10 +6201,10 @@
         <v>2000000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10.75</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>21500000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6195,10 +6223,10 @@
         <v>1900000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>19300000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>10.1579</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>19300000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6217,10 +6245,10 @@
         <v>2000000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>17800000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.9</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>17800000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6239,10 +6267,10 @@
         <v>2000000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>17900000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.949999999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>17900000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6260,10 +6288,10 @@
         <v>2000000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>18000000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6281,10 +6309,10 @@
         <v>1700000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.411799999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>16000000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -6300,10 +6328,10 @@
         <v>1600000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.75</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>14000000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -6319,10 +6347,10 @@
         <v>1500000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12000000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -6338,10 +6366,10 @@
         <v>1500000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>13800000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>13800000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>2000</v>
@@ -6359,10 +6387,10 @@
         <v>1300000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12900000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.9231</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12900000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>3300</v>
@@ -6698,7 +6726,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6777,10 +6805,10 @@
         <v>2332000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>60142000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>25.7899</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>60142000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3199.23</v>
@@ -6799,10 +6827,10 @@
         <v>2226000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>56176000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>25.2363</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>56176000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4925.92</v>
@@ -6821,10 +6849,10 @@
         <v>2248000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>54230000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>24.1237</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>54230000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2932.95</v>
@@ -6843,10 +6871,10 @@
         <v>2051000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>48562000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>23.6772</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>48562000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>79.59999999999999</v>
@@ -6865,10 +6893,10 @@
         <v>2173000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>50190000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.0971</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>50190000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>10</v>
@@ -6887,10 +6915,10 @@
         <v>2142000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>51310000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>23.9542</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>51310000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>393.74</v>
@@ -6909,10 +6937,10 @@
         <v>2179000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>48605000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>22.3061</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>48605000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>458</v>
@@ -6931,10 +6959,10 @@
         <v>2117000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>43417000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>20.5087</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>43417000</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6951,10 +6979,10 @@
         <v>2076000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>48009000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>23.1257</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>48009000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24.36</v>
@@ -6973,10 +7001,10 @@
         <v>2024000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>46395000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>22.9224</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>46395000</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6993,10 +7021,10 @@
         <v>1992200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>45343600</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>22.7606</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>45343600</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -7015,10 +7043,10 @@
         <v>1907000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41483000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>21.753</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41483000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7037,10 +7065,10 @@
         <v>1863200</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>42339400</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>22.724</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>42339400</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7059,10 +7087,10 @@
         <v>1835300</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>36577300</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>19.9299</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>36577300</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7081,10 +7109,10 @@
         <v>1828300</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>34390900</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>18.8103</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>34390900</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7103,10 +7131,10 @@
         <v>1796000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>34658000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>19.2973</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>34658000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7125,10 +7153,10 @@
         <v>1742800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>28599600</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>16.4101</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>28599600</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>120</v>
@@ -7147,10 +7175,10 @@
         <v>1569200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>29174600</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>18.592</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>29174600</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>47</v>
@@ -7169,10 +7197,10 @@
         <v>1523900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>28787700</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>18.8908</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>28787700</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2408</v>
@@ -7191,10 +7219,10 @@
         <v>1484700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27925800</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18.8091</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27925800</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4813</v>
@@ -7213,10 +7241,10 @@
         <v>1337200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>23161400</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>17.3208</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>23161400</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2329</v>
@@ -7235,10 +7263,10 @@
         <v>1259500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>24456100</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>19.4173</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>24456100</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7257,10 +7285,10 @@
         <v>1211300</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>22242700</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.3627</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>22242700</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>183</v>
@@ -7279,10 +7307,10 @@
         <v>1340900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>25000100</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.6443</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>25000100</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1192</v>
@@ -7301,10 +7329,10 @@
         <v>1280200</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>22494700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17.5712</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>22494700</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>17.68</v>
@@ -7323,10 +7351,10 @@
         <v>1208900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>17652300</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>14.602</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>17652300</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>61</v>
@@ -7345,10 +7373,10 @@
         <v>1248800</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>24215900</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>19.3913</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>24215900</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2926</v>
@@ -7367,10 +7395,10 @@
         <v>1109000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>18843300</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16.9913</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>18843300</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>773</v>
@@ -7389,10 +7417,10 @@
         <v>1069400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17401300</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>16.272</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17401300</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>313</v>
@@ -7411,10 +7439,10 @@
         <v>1047100</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17392400</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.6101</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17392400</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>56</v>
@@ -7433,10 +7461,10 @@
         <v>1240000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>18479000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>14.9024</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>18479000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>44</v>
@@ -7455,10 +7483,10 @@
         <v>1135100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>18195000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>16.0294</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>18195000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>32</v>
@@ -7477,10 +7505,10 @@
         <v>935500</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15205600</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>16.254</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15205600</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>22</v>
@@ -7499,10 +7527,10 @@
         <v>940000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>14770800</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>15.7136</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>14770800</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7521,10 +7549,10 @@
         <v>932700</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>14857000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15.929</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>14857000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7543,10 +7571,10 @@
         <v>885100</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>14046000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15.8694</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>14046000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7565,10 +7593,10 @@
         <v>831500</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>12740300</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.3221</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>12740300</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>238</v>
@@ -7587,10 +7615,10 @@
         <v>843000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10422800</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12.3639</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10422800</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>369</v>
@@ -7609,10 +7637,10 @@
         <v>849000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>12570600</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>14.8064</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>12570600</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7631,10 +7659,10 @@
         <v>794300</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>12151800</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.2988</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>12151800</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>409</v>
@@ -7653,10 +7681,10 @@
         <v>735000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9956000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>13.5456</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9956000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>37</v>
@@ -7675,10 +7703,10 @@
         <v>762700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>9911800</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>12.9957</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>9911800</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>198</v>
@@ -7697,10 +7725,10 @@
         <v>732000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9670000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13.2104</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9670000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>408</v>
@@ -7719,10 +7747,10 @@
         <v>685200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8326600</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.1521</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8326600</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>534</v>
@@ -7741,10 +7769,10 @@
         <v>807100</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>10133000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>12.5548</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>10133000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>232</v>
@@ -7763,10 +7791,10 @@
         <v>665300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8135400</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.2282</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8135400</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>390</v>
@@ -7785,10 +7813,10 @@
         <v>619600</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7170700</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>11.5731</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7170700</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>934</v>
@@ -7807,10 +7835,10 @@
         <v>622400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>7306000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.7384</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>7306000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1085</v>
@@ -7829,10 +7857,10 @@
         <v>587400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6225400</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>10.5982</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6225400</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>758</v>
@@ -7851,10 +7879,10 @@
         <v>543400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4861100</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.9457</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4861100</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>383</v>
@@ -7873,10 +7901,10 @@
         <v>504600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4451000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.820799999999998</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4451000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>448</v>
@@ -7895,10 +7923,10 @@
         <v>491900</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4825500</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.809899999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4825500</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1002</v>
@@ -7917,10 +7945,10 @@
         <v>481900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4807200</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.9755</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4807200</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>710</v>
@@ -7939,10 +7967,10 @@
         <v>496000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>3912600</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>7.8883</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>3912600</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2182</v>
@@ -7961,10 +7989,10 @@
         <v>524400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4725500</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.011299999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4725500</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1307</v>
@@ -7983,10 +8011,10 @@
         <v>501400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4232300</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.441000000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4232300</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1272</v>
@@ -8005,10 +8033,10 @@
         <v>473300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3521500</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.440300000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3521500</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3018</v>
@@ -8026,10 +8054,10 @@
         <v>479000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4076000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.509399999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4076000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>799</v>
@@ -8047,10 +8075,10 @@
         <v>429000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3605000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.4033</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3605000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1598</v>
@@ -8068,10 +8096,10 @@
         <v>415000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2593000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6.2482</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2593000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2428</v>
@@ -8089,10 +8117,10 @@
         <v>413000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3365000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.1477</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3365000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>827</v>
@@ -8110,10 +8138,10 @@
         <v>365000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2447000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.7041</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2447000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1151</v>
@@ -8131,10 +8159,10 @@
         <v>375000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2719000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7.2507</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2719000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>1325</v>
@@ -8470,7 +8498,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8549,10 +8577,10 @@
         <v>1210200</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>21358630</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>17.6488</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>21358630</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>12936.34</v>
@@ -8571,10 +8599,10 @@
         <v>1204300</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>20899210</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>17.3538</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>20899210</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13942.14</v>
@@ -8593,10 +8621,10 @@
         <v>1283200</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>21356320</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>16.643</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>21356320</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>193058.49</v>
@@ -8615,10 +8643,10 @@
         <v>1325200</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>20837990</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>15.7244</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>20837990</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>301667.77</v>
@@ -8637,10 +8665,10 @@
         <v>1308800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>20269190</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>15.4869</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>20269190</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>250602.44</v>
@@ -8659,10 +8687,10 @@
         <v>1319900</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22503970</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>17.0498</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>22503970</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>5760.37</v>
@@ -8681,10 +8709,10 @@
         <v>1323200</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>22208220</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>16.7837</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>22208220</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3820.64</v>
@@ -8703,10 +8731,10 @@
         <v>1311600</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>21750290</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>16.583</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>21750290</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9774</v>
@@ -8725,10 +8753,10 @@
         <v>1291000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>20839270</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>16.142</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>20839270</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1752.8</v>
@@ -8747,10 +8775,10 @@
         <v>1342800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>23693350</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>17.6447</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>23693350</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>21840.07</v>
@@ -8769,10 +8797,10 @@
         <v>1394090</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>22258600</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>15.9664</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>22258600</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>5175</v>
@@ -8791,10 +8819,10 @@
         <v>1444100</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>23250200</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>16.1001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>23250200</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>6267</v>
@@ -8813,10 +8841,10 @@
         <v>1443000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>24248000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>16.8039</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>24248000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>23845</v>
@@ -8835,10 +8863,10 @@
         <v>1411900</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>18705000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>13.2481</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>18705000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>15251</v>
@@ -8857,10 +8885,10 @@
         <v>1411800</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>19666100</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>13.9298</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>19666100</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>5628</v>
@@ -8879,10 +8907,10 @@
         <v>1408900</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>19545400</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>13.8728</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>19545400</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>9762</v>
@@ -8901,10 +8929,10 @@
         <v>1453300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>19102000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>13.1439</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>19102000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6459</v>
@@ -8923,10 +8951,10 @@
         <v>1461500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>19467100</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13.3199</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>19467100</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>20740</v>
@@ -8945,10 +8973,10 @@
         <v>1515900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>19462400</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>12.8388</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>19462400</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2469</v>
@@ -8967,10 +8995,10 @@
         <v>1556000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>20754800</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>13.3386</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>20754800</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1416</v>
@@ -8989,10 +9017,10 @@
         <v>1586900</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>18453000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>11.6283</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>18453000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>841</v>
@@ -9011,10 +9039,10 @@
         <v>1592300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>16619500</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>10.4374</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>16619500</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>6785</v>
@@ -9033,10 +9061,10 @@
         <v>1604700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>17343500</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>10.8079</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>17343500</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1568</v>
@@ -9055,10 +9083,10 @@
         <v>1631000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>19838100</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12.1632</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>19838100</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>10543</v>
@@ -9077,10 +9105,10 @@
         <v>1551100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12723000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.2026</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12723000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>4182</v>
@@ -9099,10 +9127,10 @@
         <v>1513200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15405000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10.1804</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15405000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3603</v>
@@ -9121,10 +9149,10 @@
         <v>1577400</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16700800</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>10.5875</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16700800</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3004</v>
@@ -9143,10 +9171,10 @@
         <v>1548900</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>18410000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11.8859</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>18410000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>44833</v>
@@ -9165,10 +9193,10 @@
         <v>1530600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>14729400</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9.623299999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>14729400</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>38233</v>
@@ -9187,10 +9215,10 @@
         <v>1527000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16102000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.5449</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16102000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7769</v>
@@ -9209,10 +9237,10 @@
         <v>1534000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>21009000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13.6956</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>21009000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3000</v>
@@ -9231,10 +9259,10 @@
         <v>1705287</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>20276816</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>11.8906</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>20276816</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>40000</v>
@@ -9246,722 +9274,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -10271,7 +9964,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10350,10 +10043,10 @@
         <v>388580</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>19992090</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>51.4491</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>19992090</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>632597.9</v>
@@ -10372,10 +10065,10 @@
         <v>371590</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18236860</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>49.0779</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>18236860</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>606723.02</v>
@@ -10394,10 +10087,10 @@
         <v>376200</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>18717000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>49.7528</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>18717000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>467523.07</v>
@@ -10416,10 +10109,10 @@
         <v>368960</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19051790</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>51.6365</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19051790</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>501488.53</v>
@@ -10438,10 +10131,10 @@
         <v>379320</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>19251320</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>50.75219999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>19251320</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>412406.78</v>
@@ -10460,10 +10153,10 @@
         <v>410670</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>20421560</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>49.7274</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>20421560</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>486481.99</v>
@@ -10482,10 +10175,10 @@
         <v>422690</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>20453430</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>48.3887</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>20453430</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>501793.57</v>
@@ -10504,10 +10197,10 @@
         <v>419943</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>20426359</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>48.64080000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>20426359</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>495933.11</v>
@@ -10526,10 +10219,10 @@
         <v>426710</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>20012720</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>46.9</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>20012720</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>400194.12</v>
@@ -10548,10 +10241,10 @@
         <v>425370</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>20056500</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>47.1507</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>20056500</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>466379.81</v>
@@ -10570,10 +10263,10 @@
         <v>425290</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>19715480</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>46.35769999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>19715480</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>390746</v>
@@ -10592,10 +10285,10 @@
         <v>460735</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>21090685</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>45.7762</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>21090685</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>353016</v>
@@ -10614,10 +10307,10 @@
         <v>436454</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>19506150</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>44.6923</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>19506150</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>491543</v>
@@ -10636,10 +10329,10 @@
         <v>408288</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>18350034</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>44.9438</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>18350034</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>415411</v>
@@ -10658,10 +10351,10 @@
         <v>422492</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>19622476</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>46.4446</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>19622476</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>424687</v>
@@ -10680,10 +10373,10 @@
         <v>423666</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18826578</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>44.4373</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18826578</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>534146</v>
@@ -10702,10 +10395,10 @@
         <v>454143</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>20179192</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>44.4336</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>20179192</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>501590</v>
@@ -10724,10 +10417,10 @@
         <v>453334</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>19989724</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>44.0949</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>19989724</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>370775</v>
@@ -10746,10 +10439,10 @@
         <v>439574</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>19222700</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>43.7303</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>19222700</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>357378</v>
@@ -10768,10 +10461,10 @@
         <v>471869</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>20675012</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>43.8152</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>20675012</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>342483</v>
@@ -10790,10 +10483,10 @@
         <v>505701</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>20783556</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>41.0985</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>20783556</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>395665</v>
@@ -10812,10 +10505,10 @@
         <v>512297</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>20782288</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>40.5669</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>20782288</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>400578</v>
@@ -10834,10 +10527,10 @@
         <v>494086</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>19852512</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>40.1803</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>19852512</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>304388</v>
@@ -10856,10 +10549,10 @@
         <v>545320</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>23293964</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>42.7161</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>23293964</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>365350.3</v>
@@ -10878,10 +10571,10 @@
         <v>538960</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>21685930</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>40.2366</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>21685930</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>418862</v>
@@ -10900,10 +10593,10 @@
         <v>561260</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21575890</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>38.4419</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>21575890</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>481273</v>
@@ -10922,10 +10615,10 @@
         <v>547780</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>21186890</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>38.67769999999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>21186890</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>346916</v>
@@ -10944,10 +10637,10 @@
         <v>577040</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>22645780</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>39.24469999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>22645780</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>447454</v>
@@ -10966,10 +10659,10 @@
         <v>556890</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>20189350</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>36.25369999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>20189350</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>310651</v>
@@ -10988,10 +10681,10 @@
         <v>560530</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>21292760</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>37.9868</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>21292760</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>291575</v>
@@ -11010,10 +10703,10 @@
         <v>534670</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>19520300</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>36.5091</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>19520300</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>323229</v>
@@ -11032,10 +10725,10 @@
         <v>532200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>19294000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>36.2533</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>19294000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>182156</v>
@@ -11054,10 +10747,10 @@
         <v>556200</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>18943008</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>34.0579</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>18943008</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>279509</v>
@@ -11076,10 +10769,10 @@
         <v>554700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>18239008</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>32.8809</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>18239008</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>372140</v>
@@ -11098,10 +10791,10 @@
         <v>518600</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>16803008</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>32.4007</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>16803008</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>304033</v>
@@ -11120,10 +10813,10 @@
         <v>509600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>16167800</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>31.7265</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>16167800</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>219275</v>
@@ -11142,10 +10835,10 @@
         <v>523400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>17659200</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>33.7394</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>17659200</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>226698</v>
@@ -11164,10 +10857,10 @@
         <v>496400</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>16408000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>33.054</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>16408000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>156283</v>
@@ -11186,10 +10879,10 @@
         <v>552700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>18443008</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>33.3689</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>18443008</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>184100</v>
@@ -11208,10 +10901,10 @@
         <v>527900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>16422000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>31.1082</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>16422000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>147485</v>
@@ -11230,10 +10923,10 @@
         <v>505000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>15137600</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>29.9754</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>15137600</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>158342</v>
@@ -11252,10 +10945,10 @@
         <v>515400</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>16108500</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>31.2544</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>16108500</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>217027</v>
@@ -11274,10 +10967,10 @@
         <v>501300</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15450000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>30.8199</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15450000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>177967</v>
@@ -11296,10 +10989,10 @@
         <v>466900</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13785000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>29.5245</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13785000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>99049</v>
@@ -11318,10 +11011,10 @@
         <v>511900</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15533100</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>30.344</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15533100</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>72317</v>
@@ -11340,10 +11033,10 @@
         <v>559100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>16615640</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>29.7185</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>16615640</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>68103</v>
@@ -11362,10 +11055,10 @@
         <v>553300</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>16117595</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>29.1299</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>16117595</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>48283</v>
@@ -11384,10 +11077,10 @@
         <v>557900</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16223372</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>29.0794</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16223372</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>24152</v>
@@ -11406,10 +11099,10 @@
         <v>512400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14604600</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>28.5023</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14604600</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>64413</v>
@@ -11428,10 +11121,10 @@
         <v>566100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>15530695</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>27.4345</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>15530695</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>85050</v>
@@ -11450,10 +11143,10 @@
         <v>531500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13608290</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>25.6036</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13608290</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>38789</v>
@@ -11472,10 +11165,10 @@
         <v>510800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>13442548</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>26.3167</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>13442548</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>34295</v>
@@ -11494,10 +11187,10 @@
         <v>565900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>14484500</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>25.5955</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>14484500</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>67332</v>
@@ -11516,10 +11209,10 @@
         <v>578000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>14774200</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>25.5609</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>14774200</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>87534</v>
@@ -11538,10 +11231,10 @@
         <v>573080</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>14181460</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>24.746</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>14181460</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>106539</v>
@@ -11560,10 +11253,10 @@
         <v>560045</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>13402328</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>23.9308</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>13402328</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>69518</v>
@@ -11582,10 +11275,10 @@
         <v>591043</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13872474</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>23.4712</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13872474</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>93360</v>
@@ -11603,10 +11296,10 @@
         <v>592136</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13939424</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>23.5409</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13939424</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>127254</v>
@@ -11624,10 +11317,10 @@
         <v>560057</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>13210568</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>23.5879</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>13210568</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>112212</v>
@@ -11645,10 +11338,10 @@
         <v>515019</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10941455</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>21.2448</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10941455</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>123975</v>
@@ -11666,10 +11359,10 @@
         <v>535715</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12305931</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>22.971</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12305931</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>33055</v>
@@ -11687,10 +11380,10 @@
         <v>545416</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12018000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>22.0346</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12018000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>48960</v>
@@ -11708,10 +11401,10 @@
         <v>599268</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>13305000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>22.2021</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>13305000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>31994</v>
@@ -12047,7 +11740,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12126,10 +11819,10 @@
         <v>1105425</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>19374440.76</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>17.5267</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>19374440.76</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>274438.7</v>
@@ -12148,10 +11841,10 @@
         <v>1086482</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18887678.75</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>17.3842</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>18887678.75</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>479379.61</v>
@@ -12170,10 +11863,10 @@
         <v>1142111</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>18295535.1</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>16.0191</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>18295535.1</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>546191.66</v>
@@ -12192,10 +11885,10 @@
         <v>1178098</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19607361</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>16.6432</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19607361</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>316224.58</v>
@@ -12214,10 +11907,10 @@
         <v>1238575</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22074873.5</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>17.8228</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22074873.5</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>300777.11</v>
@@ -12236,10 +11929,10 @@
         <v>1313495</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22394960</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>17.0499</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>22394960</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>572966.42</v>
@@ -12258,10 +11951,10 @@
         <v>1335560</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21707645</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>16.2536</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21707645</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>560637.42</v>
@@ -12280,10 +11973,10 @@
         <v>1425570</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>22463487</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>15.7575</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>22463487</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>285490.08</v>
@@ -12302,10 +11995,10 @@
         <v>2111613</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>33645799.4</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>15.9337</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>33645799.4</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>549244.36</v>
@@ -12324,10 +12017,10 @@
         <v>2101461</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>31501353.6</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>14.9902</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>31501353.6</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>689726.2</v>
@@ -12346,10 +12039,10 @@
         <v>2087824</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>30199126</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>14.4644</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>30199126</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>448203</v>
@@ -12368,10 +12061,10 @@
         <v>2197170</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>29532530</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>13.4412</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>29532530</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>461124</v>
@@ -12390,10 +12083,10 @@
         <v>2202576</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>32681467</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>14.8378</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>32681467</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1466232</v>
@@ -12412,10 +12105,10 @@
         <v>2109109</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>21140539</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10.0234</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>21140539</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>664348</v>
@@ -12434,10 +12127,10 @@
         <v>2182355</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>31133958</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>14.2662</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>31133958</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>374155</v>
@@ -12456,10 +12149,10 @@
         <v>2097220</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>28846360</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>13.7546</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>28846360</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>537495</v>
@@ -12478,10 +12171,10 @@
         <v>2060543</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>27195248</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>13.1981</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>27195248</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>251728</v>
@@ -12500,10 +12193,10 @@
         <v>2120042</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>28259734</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13.3298</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>28259734</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>370929</v>
@@ -12522,10 +12215,10 @@
         <v>2272613</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>28136991</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>12.3809</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>28136991</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>376576</v>
@@ -12544,10 +12237,10 @@
         <v>2403353</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27876247</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>11.5989</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27876247</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>161220</v>
@@ -12566,10 +12259,10 @@
         <v>2515808</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>29358474</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>11.6696</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>29358474</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>508006</v>
@@ -12588,10 +12281,10 @@
         <v>2619379</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>26922502</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>10.2782</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>26922502</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>192971</v>
@@ -12610,10 +12303,10 @@
         <v>2720991</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>29498810</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>10.8412</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>29498810</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>95724</v>
@@ -12632,10 +12325,10 @@
         <v>2814266</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>29464801</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>10.4698</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>29464801</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>269375.42</v>
@@ -12654,10 +12347,10 @@
         <v>2900538</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>27997731</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.6526</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>27997731</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>204285</v>
@@ -12676,10 +12369,10 @@
         <v>2981728</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>28953172</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.7102</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>28953172</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>138185</v>
@@ -12698,10 +12391,10 @@
         <v>3154351</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>35137578</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>11.1394</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>35137578</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>119192</v>
@@ -12720,10 +12413,10 @@
         <v>3288334</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>37618541</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11.44</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>37618541</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>58827</v>
@@ -12742,10 +12435,10 @@
         <v>3390750</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>39909130</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11.77</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>39909130</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>61951</v>
@@ -12764,10 +12457,10 @@
         <v>3300256</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>33827622</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.25</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>33827622</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>123419</v>
@@ -12786,10 +12479,10 @@
         <v>3466885</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>37650371</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10.86</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>37650371</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>226000</v>
@@ -12808,10 +12501,10 @@
         <v>3371126</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>38329700</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>11.37</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>38329700</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>425000</v>
@@ -12823,722 +12516,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
